--- a/config_3.2/game_module_config_cjj.xlsx
+++ b/config_3.2/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1024">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4385,6 +4385,38 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_005_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_004_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_006_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_008_meigui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰boss皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4494,7 +4526,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4551,19 +4583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4599,7 +4625,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4693,12 +4719,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4707,15 +4727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -4729,16 +4740,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4759,31 +4770,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5066,10 +5074,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G270" sqref="G270"/>
+      <selection pane="bottomRight" activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5086,7 +5094,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6984,29 +6992,29 @@
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="34" customFormat="1" ht="16.5">
+    <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>655</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="33">
-        <v>0</v>
-      </c>
-      <c r="F74" s="34">
-        <v>0</v>
-      </c>
-      <c r="G74" s="34">
-        <v>0</v>
-      </c>
-      <c r="I74" s="35" t="s">
+      <c r="E74" s="31">
+        <v>0</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0</v>
+      </c>
+      <c r="G74" s="32">
+        <v>0</v>
+      </c>
+      <c r="I74" s="33" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7040,16 +7048,16 @@
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="43">
         <v>1</v>
       </c>
       <c r="F76" s="23">
@@ -7058,7 +7066,7 @@
       <c r="G76" s="23">
         <v>1</v>
       </c>
-      <c r="I76" s="49" t="s">
+      <c r="I76" s="44" t="s">
         <v>957</v>
       </c>
     </row>
@@ -8176,7 +8184,7 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="56" t="s">
+      <c r="I119" s="49" t="s">
         <v>982</v>
       </c>
     </row>
@@ -11865,13 +11873,13 @@
       <c r="A268" s="7">
         <v>267</v>
       </c>
-      <c r="B268" s="51" t="s">
+      <c r="B268" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="C268" s="51" t="s">
+      <c r="C268" s="46" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="50" t="s">
+      <c r="D268" s="45" t="s">
         <v>792</v>
       </c>
       <c r="E268" s="2">
@@ -11883,7 +11891,7 @@
       <c r="G268" s="2">
         <v>1</v>
       </c>
-      <c r="I268" s="52" t="s">
+      <c r="I268" s="47" t="s">
         <v>732</v>
       </c>
     </row>
@@ -12069,26 +12077,26 @@
         <v>817</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A276" s="16">
+    <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A276" s="55">
         <v>275</v>
       </c>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="52" t="s">
         <v>818</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="C276" s="52" t="s">
         <v>819</v>
       </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
+      <c r="E276" s="53">
+        <v>1</v>
+      </c>
+      <c r="F276" s="53">
+        <v>1</v>
+      </c>
+      <c r="G276" s="53">
+        <v>1</v>
+      </c>
+      <c r="I276" s="54" t="s">
         <v>820</v>
       </c>
     </row>
@@ -12724,13 +12732,13 @@
       <c r="A298" s="16">
         <v>297</v>
       </c>
-      <c r="B298" s="40" t="s">
+      <c r="B298" s="35" t="s">
         <v>894</v>
       </c>
-      <c r="C298" s="41" t="s">
+      <c r="C298" s="36" t="s">
         <v>897</v>
       </c>
-      <c r="D298" s="40" t="s">
+      <c r="D298" s="35" t="s">
         <v>895</v>
       </c>
       <c r="E298" s="30">
@@ -12743,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="30"/>
-      <c r="I298" s="42" t="s">
+      <c r="I298" s="37" t="s">
         <v>896</v>
       </c>
       <c r="J298" s="17"/>
@@ -12778,26 +12786,26 @@
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="43" t="s">
+      <c r="B299" s="38" t="s">
         <v>955</v>
       </c>
-      <c r="C299" s="44" t="s">
+      <c r="C299" s="39" t="s">
         <v>920</v>
       </c>
-      <c r="D299" s="43" t="s">
+      <c r="D299" s="38" t="s">
         <v>953</v>
       </c>
-      <c r="E299" s="45">
-        <v>1</v>
-      </c>
-      <c r="F299" s="45">
-        <v>1</v>
-      </c>
-      <c r="G299" s="45">
-        <v>1</v>
-      </c>
-      <c r="H299" s="45"/>
-      <c r="I299" s="44" t="s">
+      <c r="E299" s="40">
+        <v>1</v>
+      </c>
+      <c r="F299" s="40">
+        <v>1</v>
+      </c>
+      <c r="G299" s="40">
+        <v>1</v>
+      </c>
+      <c r="H299" s="40"/>
+      <c r="I299" s="39" t="s">
         <v>918</v>
       </c>
       <c r="J299" s="17"/>
@@ -12832,26 +12840,26 @@
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="43" t="s">
+      <c r="B300" s="38" t="s">
         <v>956</v>
       </c>
-      <c r="C300" s="44" t="s">
+      <c r="C300" s="39" t="s">
         <v>919</v>
       </c>
-      <c r="D300" s="43" t="s">
+      <c r="D300" s="38" t="s">
         <v>952</v>
       </c>
-      <c r="E300" s="45">
-        <v>1</v>
-      </c>
-      <c r="F300" s="45">
-        <v>1</v>
-      </c>
-      <c r="G300" s="45">
-        <v>1</v>
-      </c>
-      <c r="H300" s="45"/>
-      <c r="I300" s="44" t="s">
+      <c r="E300" s="40">
+        <v>1</v>
+      </c>
+      <c r="F300" s="40">
+        <v>1</v>
+      </c>
+      <c r="G300" s="40">
+        <v>1</v>
+      </c>
+      <c r="H300" s="40"/>
+      <c r="I300" s="39" t="s">
         <v>918</v>
       </c>
     </row>
@@ -12859,26 +12867,26 @@
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="38" t="s">
         <v>946</v>
       </c>
-      <c r="C301" s="43" t="s">
+      <c r="C301" s="38" t="s">
         <v>898</v>
       </c>
-      <c r="D301" s="43" t="s">
+      <c r="D301" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="E301" s="45">
-        <v>1</v>
-      </c>
-      <c r="F301" s="45">
-        <v>1</v>
-      </c>
-      <c r="G301" s="45">
-        <v>1</v>
-      </c>
-      <c r="H301" s="45"/>
-      <c r="I301" s="46" t="s">
+      <c r="E301" s="40">
+        <v>1</v>
+      </c>
+      <c r="F301" s="40">
+        <v>1</v>
+      </c>
+      <c r="G301" s="40">
+        <v>1</v>
+      </c>
+      <c r="H301" s="40"/>
+      <c r="I301" s="41" t="s">
         <v>641</v>
       </c>
     </row>
@@ -12940,13 +12948,13 @@
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="40" t="s">
+      <c r="B304" s="35" t="s">
         <v>909</v>
       </c>
-      <c r="C304" s="41" t="s">
+      <c r="C304" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="D304" s="40" t="s">
+      <c r="D304" s="35" t="s">
         <v>911</v>
       </c>
       <c r="E304" s="30">
@@ -12959,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="30"/>
-      <c r="I304" s="41" t="s">
+      <c r="I304" s="36" t="s">
         <v>908</v>
       </c>
     </row>
@@ -12989,29 +12997,29 @@
         <v>918</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A306" s="16">
+    <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A306" s="55">
         <v>305</v>
       </c>
-      <c r="B306" s="18" t="s">
+      <c r="B306" s="51" t="s">
         <v>915</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="C306" s="52" t="s">
         <v>916</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="D306" s="51" t="s">
         <v>917</v>
       </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="I306" s="15" t="s">
+      <c r="E306" s="53">
+        <v>1</v>
+      </c>
+      <c r="F306" s="53">
+        <v>1</v>
+      </c>
+      <c r="G306" s="53">
+        <v>1</v>
+      </c>
+      <c r="I306" s="52" t="s">
         <v>918</v>
       </c>
     </row>
@@ -13042,7 +13050,7 @@
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="39" t="s">
+      <c r="B308" s="34" t="s">
         <v>924</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -13068,13 +13076,13 @@
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="39" t="s">
+      <c r="B309" s="34" t="s">
         <v>928</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="D309" s="39" t="s">
+      <c r="D309" s="34" t="s">
         <v>930</v>
       </c>
       <c r="E309" s="17">
@@ -13120,13 +13128,13 @@
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="39" t="s">
+      <c r="B311" s="34" t="s">
         <v>935</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="D311" s="39" t="s">
+      <c r="D311" s="34" t="s">
         <v>937</v>
       </c>
       <c r="E311" s="17">
@@ -13142,103 +13150,95 @@
         <v>938</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="16.5">
+    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="31" t="s">
+      <c r="B312" s="18" t="s">
         <v>939</v>
       </c>
-      <c r="C312" s="32" t="s">
+      <c r="C312" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="D312" s="23"/>
-      <c r="E312" s="23">
-        <v>1</v>
-      </c>
-      <c r="F312" s="23">
-        <v>1</v>
-      </c>
-      <c r="G312" s="23">
-        <v>1</v>
-      </c>
-      <c r="H312" s="23"/>
-      <c r="I312" s="32" t="s">
+      <c r="E312" s="17">
+        <v>1</v>
+      </c>
+      <c r="F312" s="17">
+        <v>1</v>
+      </c>
+      <c r="G312" s="17">
+        <v>1</v>
+      </c>
+      <c r="I312" s="15" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="16.5">
+    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="31" t="s">
+      <c r="B313" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="C313" s="32" t="s">
+      <c r="C313" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="D313" s="23"/>
-      <c r="E313" s="23">
-        <v>1</v>
-      </c>
-      <c r="F313" s="23">
-        <v>1</v>
-      </c>
-      <c r="G313" s="23">
-        <v>1</v>
-      </c>
-      <c r="H313" s="23"/>
-      <c r="I313" s="32" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="16.5">
+    <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="36" t="s">
+      <c r="B314" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="C314" s="37" t="s">
+      <c r="C314" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="D314" s="38"/>
-      <c r="E314" s="38">
-        <v>1</v>
-      </c>
-      <c r="F314" s="38">
-        <v>1</v>
-      </c>
-      <c r="G314" s="38">
-        <v>1</v>
-      </c>
-      <c r="H314" s="38"/>
-      <c r="I314" s="37" t="s">
+      <c r="E314" s="17">
+        <v>1</v>
+      </c>
+      <c r="F314" s="17">
+        <v>1</v>
+      </c>
+      <c r="G314" s="17">
+        <v>1</v>
+      </c>
+      <c r="I314" s="15" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="16.5">
+    <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="36" t="s">
+      <c r="B315" s="18" t="s">
         <v>970</v>
       </c>
-      <c r="C315" s="37" t="s">
+      <c r="C315" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="D315" s="38"/>
-      <c r="E315" s="38">
-        <v>1</v>
-      </c>
-      <c r="F315" s="38">
-        <v>1</v>
-      </c>
-      <c r="G315" s="38">
-        <v>1</v>
-      </c>
-      <c r="H315" s="38"/>
-      <c r="I315" s="37" t="s">
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="15" t="s">
         <v>972</v>
       </c>
     </row>
@@ -13246,24 +13246,22 @@
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="36" t="s">
+      <c r="B316" s="18" t="s">
         <v>973</v>
       </c>
-      <c r="C316" s="38" t="s">
+      <c r="C316" s="17" t="s">
         <v>974</v>
       </c>
-      <c r="D316" s="38"/>
-      <c r="E316" s="38">
-        <v>1</v>
-      </c>
-      <c r="F316" s="38">
-        <v>1</v>
-      </c>
-      <c r="G316" s="38">
-        <v>1</v>
-      </c>
-      <c r="H316" s="38"/>
-      <c r="I316" s="37" t="s">
+      <c r="E316" s="17">
+        <v>1</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316" s="17">
+        <v>1</v>
+      </c>
+      <c r="I316" s="15" t="s">
         <v>975</v>
       </c>
     </row>
@@ -13271,178 +13269,166 @@
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="36" t="s">
+      <c r="B317" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="C317" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="D317" s="38"/>
-      <c r="E317" s="38">
-        <v>1</v>
-      </c>
-      <c r="F317" s="38">
-        <v>1</v>
-      </c>
-      <c r="G317" s="38">
-        <v>1</v>
-      </c>
-      <c r="H317" s="38"/>
-      <c r="I317" s="37" t="s">
+      <c r="E317" s="17">
+        <v>1</v>
+      </c>
+      <c r="F317" s="17">
+        <v>1</v>
+      </c>
+      <c r="G317" s="17">
+        <v>1</v>
+      </c>
+      <c r="I317" s="15" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="16.5">
+    <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="36" t="s">
+      <c r="B318" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="C318" s="37" t="s">
+      <c r="C318" s="15" t="s">
         <v>951</v>
       </c>
-      <c r="D318" s="38"/>
-      <c r="E318" s="38">
-        <v>1</v>
-      </c>
-      <c r="F318" s="38">
-        <v>1</v>
-      </c>
-      <c r="G318" s="38">
-        <v>1</v>
-      </c>
-      <c r="H318" s="38"/>
-      <c r="I318" s="37" t="s">
+      <c r="E318" s="17">
+        <v>1</v>
+      </c>
+      <c r="F318" s="17">
+        <v>1</v>
+      </c>
+      <c r="G318" s="17">
+        <v>1</v>
+      </c>
+      <c r="I318" s="15" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="16.5">
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="36" t="s">
+      <c r="B319" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="C319" s="37" t="s">
+      <c r="C319" s="15" t="s">
         <v>979</v>
       </c>
-      <c r="D319" s="38"/>
-      <c r="E319" s="38">
-        <v>1</v>
-      </c>
-      <c r="F319" s="38">
-        <v>1</v>
-      </c>
-      <c r="G319" s="38">
-        <v>1</v>
-      </c>
-      <c r="H319" s="38"/>
-      <c r="I319" s="37" t="s">
+      <c r="E319" s="17">
+        <v>1</v>
+      </c>
+      <c r="F319" s="17">
+        <v>1</v>
+      </c>
+      <c r="G319" s="17">
+        <v>1</v>
+      </c>
+      <c r="I319" s="15" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="16.5">
+    <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="53" t="s">
+      <c r="B320" s="48" t="s">
         <v>968</v>
       </c>
-      <c r="C320" s="37" t="s">
+      <c r="C320" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="D320" s="38"/>
-      <c r="E320" s="38">
-        <v>1</v>
-      </c>
-      <c r="F320" s="38">
-        <v>1</v>
-      </c>
-      <c r="G320" s="38">
-        <v>1</v>
-      </c>
-      <c r="H320" s="38"/>
-      <c r="I320" s="54" t="s">
+      <c r="E320" s="17">
+        <v>1</v>
+      </c>
+      <c r="F320" s="17">
+        <v>1</v>
+      </c>
+      <c r="G320" s="17">
+        <v>1</v>
+      </c>
+      <c r="I320" s="19" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="16.5">
+    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="50" t="s">
+      <c r="B321" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="C321" s="51" t="s">
+      <c r="C321" s="15" t="s">
         <v>987</v>
       </c>
-      <c r="D321" s="50" t="s">
+      <c r="D321" s="18" t="s">
         <v>988</v>
       </c>
-      <c r="E321" s="2">
-        <v>1</v>
-      </c>
-      <c r="F321" s="2">
-        <v>1</v>
-      </c>
-      <c r="G321" s="2">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2"/>
-      <c r="I321" s="51" t="s">
+      <c r="E321" s="17">
+        <v>1</v>
+      </c>
+      <c r="F321" s="17">
+        <v>1</v>
+      </c>
+      <c r="G321" s="17">
+        <v>1</v>
+      </c>
+      <c r="I321" s="15" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="16.5">
+    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="50" t="s">
+      <c r="B322" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="C322" s="51" t="s">
+      <c r="C322" s="15" t="s">
         <v>989</v>
       </c>
-      <c r="D322" s="50" t="s">
+      <c r="D322" s="18" t="s">
         <v>960</v>
       </c>
-      <c r="E322" s="2">
-        <v>1</v>
-      </c>
-      <c r="F322" s="2">
-        <v>1</v>
-      </c>
-      <c r="G322" s="2">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2"/>
-      <c r="I322" s="51" t="s">
+      <c r="E322" s="17">
+        <v>1</v>
+      </c>
+      <c r="F322" s="17">
+        <v>1</v>
+      </c>
+      <c r="G322" s="17">
+        <v>1</v>
+      </c>
+      <c r="I322" s="15" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="16.5">
+    <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="50" t="s">
+      <c r="B323" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="C323" s="51" t="s">
+      <c r="C323" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2">
-        <v>1</v>
-      </c>
-      <c r="F323" s="2">
-        <v>1</v>
-      </c>
-      <c r="G323" s="2">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2"/>
-      <c r="I323" s="51" t="s">
+      <c r="E323" s="17">
+        <v>1</v>
+      </c>
+      <c r="F323" s="17">
+        <v>1</v>
+      </c>
+      <c r="G323" s="17">
+        <v>1</v>
+      </c>
+      <c r="I323" s="15" t="s">
         <v>958</v>
       </c>
     </row>
@@ -13450,289 +13436,329 @@
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="61" t="s">
+      <c r="B324" s="50" t="s">
         <v>992</v>
       </c>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2">
-        <v>1</v>
-      </c>
-      <c r="F324" s="2">
-        <v>1</v>
-      </c>
-      <c r="G324" s="2">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2"/>
-      <c r="I324" s="52" t="s">
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="19" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5">
+    <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A325" s="16">
         <v>324</v>
       </c>
-      <c r="B325" s="50" t="s">
+      <c r="B325" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="C325" s="50" t="s">
+      <c r="C325" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="D325" s="50" t="s">
+      <c r="D325" s="18" t="s">
         <v>964</v>
       </c>
-      <c r="E325" s="2">
-        <v>1</v>
-      </c>
-      <c r="F325" s="2">
-        <v>1</v>
-      </c>
-      <c r="G325" s="2">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2"/>
-      <c r="I325" s="51" t="s">
+      <c r="E325" s="17">
+        <v>1</v>
+      </c>
+      <c r="F325" s="17">
+        <v>1</v>
+      </c>
+      <c r="G325" s="17">
+        <v>1</v>
+      </c>
+      <c r="I325" s="15" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A326" s="16">
         <v>325</v>
       </c>
-      <c r="B326" s="50" t="s">
+      <c r="B326" s="18" t="s">
         <v>995</v>
       </c>
-      <c r="C326" s="52" t="s">
+      <c r="C326" s="19" t="s">
         <v>996</v>
       </c>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2">
-        <v>1</v>
-      </c>
-      <c r="F326" s="2">
-        <v>1</v>
-      </c>
-      <c r="G326" s="2">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2"/>
-      <c r="I326" s="51" t="s">
+      <c r="E326" s="17">
+        <v>1</v>
+      </c>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
+      <c r="G326" s="17">
+        <v>1</v>
+      </c>
+      <c r="I326" s="15" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="16.5">
+    <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A327" s="16">
         <v>326</v>
       </c>
-      <c r="B327" s="50" t="s">
+      <c r="B327" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="C327" s="52" t="s">
+      <c r="C327" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2">
-        <v>1</v>
-      </c>
-      <c r="F327" s="2">
-        <v>1</v>
-      </c>
-      <c r="G327" s="2">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2"/>
-      <c r="I327" s="51" t="s">
+      <c r="E327" s="17">
+        <v>1</v>
+      </c>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
+      <c r="G327" s="17">
+        <v>1</v>
+      </c>
+      <c r="I327" s="15" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5">
+    <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A328" s="16">
         <v>327</v>
       </c>
-      <c r="B328" s="50" t="s">
+      <c r="B328" s="18" t="s">
         <v>1000</v>
       </c>
-      <c r="C328" s="52" t="s">
+      <c r="C328" s="19" t="s">
         <v>1001</v>
       </c>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2">
-        <v>1</v>
-      </c>
-      <c r="F328" s="2">
-        <v>1</v>
-      </c>
-      <c r="G328" s="2">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2"/>
-      <c r="I328" s="51" t="s">
+      <c r="E328" s="17">
+        <v>1</v>
+      </c>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
+      <c r="G328" s="17">
+        <v>1</v>
+      </c>
+      <c r="I328" s="15" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="16.5">
+    <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A329" s="16">
         <v>328</v>
       </c>
-      <c r="B329" s="50" t="s">
+      <c r="B329" s="18" t="s">
         <v>1003</v>
       </c>
-      <c r="C329" s="52" t="s">
+      <c r="C329" s="19" t="s">
         <v>1004</v>
       </c>
-      <c r="D329" s="50" t="s">
+      <c r="D329" s="18" t="s">
         <v>1005</v>
       </c>
-      <c r="E329" s="2">
-        <v>1</v>
-      </c>
-      <c r="F329" s="2">
-        <v>1</v>
-      </c>
-      <c r="G329" s="2">
-        <v>1</v>
-      </c>
-      <c r="H329" s="2"/>
-      <c r="I329" s="51" t="s">
+      <c r="E329" s="17">
+        <v>1</v>
+      </c>
+      <c r="F329" s="17">
+        <v>1</v>
+      </c>
+      <c r="G329" s="17">
+        <v>1</v>
+      </c>
+      <c r="I329" s="15" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="16.5">
+    <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A330" s="16">
         <v>329</v>
       </c>
-      <c r="B330" s="57" t="s">
+      <c r="B330" s="18" t="s">
         <v>983</v>
       </c>
-      <c r="C330" s="58" t="s">
+      <c r="C330" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="D330" s="57" t="s">
+      <c r="D330" s="18" t="s">
         <v>984</v>
       </c>
-      <c r="E330" s="59">
-        <v>1</v>
-      </c>
-      <c r="F330" s="59">
-        <v>1</v>
-      </c>
-      <c r="G330" s="59">
-        <v>1</v>
-      </c>
-      <c r="H330" s="59"/>
-      <c r="I330" s="60" t="s">
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="16.5">
+    <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A331" s="16">
         <v>330</v>
       </c>
-      <c r="B331" s="50" t="s">
+      <c r="B331" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="C331" s="51" t="s">
+      <c r="C331" s="15" t="s">
         <v>1012</v>
       </c>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2">
-        <v>1</v>
-      </c>
-      <c r="F331" s="2">
-        <v>1</v>
-      </c>
-      <c r="G331" s="2">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2"/>
-      <c r="I331" s="51" t="s">
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="16.5">
+    <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A332" s="16">
         <v>331</v>
       </c>
-      <c r="B332" s="50" t="s">
+      <c r="B332" s="18" t="s">
         <v>1008</v>
       </c>
-      <c r="C332" s="51" t="s">
+      <c r="C332" s="15" t="s">
         <v>1014</v>
       </c>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2">
-        <v>1</v>
-      </c>
-      <c r="F332" s="2">
-        <v>1</v>
-      </c>
-      <c r="G332" s="2">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2"/>
-      <c r="I332" s="51" t="s">
+      <c r="E332" s="17">
+        <v>1</v>
+      </c>
+      <c r="F332" s="17">
+        <v>1</v>
+      </c>
+      <c r="G332" s="17">
+        <v>1</v>
+      </c>
+      <c r="I332" s="15" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="16.5">
+    <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A333" s="16">
         <v>332</v>
       </c>
-      <c r="B333" s="50" t="s">
+      <c r="B333" s="18" t="s">
         <v>1015</v>
       </c>
-      <c r="C333" s="51" t="s">
+      <c r="C333" s="15" t="s">
         <v>1009</v>
       </c>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2">
-        <v>1</v>
-      </c>
-      <c r="F333" s="2">
-        <v>1</v>
-      </c>
-      <c r="G333" s="2">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2"/>
-      <c r="I333" s="51" t="s">
+      <c r="E333" s="17">
+        <v>1</v>
+      </c>
+      <c r="F333" s="17">
+        <v>1</v>
+      </c>
+      <c r="G333" s="17">
+        <v>1</v>
+      </c>
+      <c r="I333" s="15" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="16.5">
+    <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A334" s="16">
         <v>333</v>
       </c>
-      <c r="B334" s="50" t="s">
+      <c r="B334" s="18" t="s">
         <v>1010</v>
       </c>
-      <c r="C334" s="51" t="s">
+      <c r="C334" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2">
-        <v>1</v>
-      </c>
-      <c r="F334" s="2">
-        <v>1</v>
-      </c>
-      <c r="G334" s="2">
-        <v>1</v>
-      </c>
-      <c r="H334" s="2"/>
-      <c r="I334" s="51" t="s">
+      <c r="E334" s="17">
+        <v>1</v>
+      </c>
+      <c r="F334" s="17">
+        <v>1</v>
+      </c>
+      <c r="G334" s="17">
+        <v>1</v>
+      </c>
+      <c r="I334" s="15" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="16.5">
-      <c r="B335" s="18"/>
-    </row>
-    <row r="336" spans="1:9" ht="16.5">
-      <c r="B336" s="18"/>
-    </row>
-    <row r="337" spans="2:2" ht="16.5">
-      <c r="B337" s="55"/>
+    <row r="335" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A335" s="16">
+        <v>334</v>
+      </c>
+      <c r="B335" s="51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C335" s="52" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E335" s="53">
+        <v>1</v>
+      </c>
+      <c r="F335" s="53">
+        <v>1</v>
+      </c>
+      <c r="G335" s="53">
+        <v>1</v>
+      </c>
+      <c r="I335" s="52" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A336" s="16">
+        <v>335</v>
+      </c>
+      <c r="B336" s="51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C336" s="52" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E336" s="53">
+        <v>1</v>
+      </c>
+      <c r="F336" s="53">
+        <v>1</v>
+      </c>
+      <c r="G336" s="53">
+        <v>1</v>
+      </c>
+      <c r="I336" s="52" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A337" s="16">
+        <v>336</v>
+      </c>
+      <c r="B337" s="51" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C337" s="54" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E337" s="53">
+        <v>1</v>
+      </c>
+      <c r="F337" s="53">
+        <v>1</v>
+      </c>
+      <c r="G337" s="53">
+        <v>1</v>
+      </c>
+      <c r="I337" s="52" t="s">
+        <v>1019</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>

--- a/config_3.2/game_module_config_cjj.xlsx
+++ b/config_3.2/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1025">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4418,6 +4418,9 @@
   <si>
     <t>玫瑰boss皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
   </si>
 </sst>
 </file>
@@ -5074,10 +5077,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D309" sqref="D309"/>
+      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13474,6 +13477,9 @@
       <c r="G325" s="17">
         <v>1</v>
       </c>
+      <c r="H325" s="17" t="s">
+        <v>1024</v>
+      </c>
       <c r="I325" s="15" t="s">
         <v>994</v>
       </c>

--- a/config_3.2/game_module_config_cjj.xlsx
+++ b/config_3.2/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1024">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4098,23 +4098,6 @@
   </si>
   <si>
     <t>Act_048_XNSMTManager</t>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9号关闭</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
@@ -5077,10 +5060,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
+      <selection pane="bottomRight" activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8188,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -12016,16 +11999,16 @@
         <v>809</v>
       </c>
       <c r="E273" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="17">
-        <v>0</v>
-      </c>
-      <c r="I273" s="15" t="s">
-        <v>965</v>
+        <v>1</v>
+      </c>
+      <c r="I273" s="19" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13204,10 +13187,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E314" s="17">
         <v>1</v>
@@ -13227,22 +13210,22 @@
         <v>314</v>
       </c>
       <c r="B315" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="15" t="s">
         <v>971</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="15" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13250,22 +13233,22 @@
         <v>315</v>
       </c>
       <c r="B316" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C316" s="17" t="s">
         <v>973</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="E316" s="17">
+        <v>1</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316" s="17">
+        <v>1</v>
+      </c>
+      <c r="I316" s="15" t="s">
         <v>974</v>
-      </c>
-      <c r="E316" s="17">
-        <v>1</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316" s="17">
-        <v>1</v>
-      </c>
-      <c r="I316" s="15" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13276,7 +13259,7 @@
         <v>949</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E317" s="17">
         <v>1</v>
@@ -13288,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13296,7 +13279,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C318" s="15" t="s">
         <v>951</v>
@@ -13319,11 +13302,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="C319" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="C319" s="15" t="s">
-        <v>979</v>
-      </c>
       <c r="E319" s="17">
         <v>1</v>
       </c>
@@ -13334,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13342,22 +13325,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C320" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="E320" s="17">
+        <v>1</v>
+      </c>
+      <c r="F320" s="17">
+        <v>1</v>
+      </c>
+      <c r="G320" s="17">
+        <v>1</v>
+      </c>
+      <c r="I320" s="19" t="s">
         <v>980</v>
-      </c>
-      <c r="E320" s="17">
-        <v>1</v>
-      </c>
-      <c r="F320" s="17">
-        <v>1</v>
-      </c>
-      <c r="G320" s="17">
-        <v>1</v>
-      </c>
-      <c r="I320" s="19" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13365,13 +13348,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="C321" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="C321" s="15" t="s">
+      <c r="D321" s="18" t="s">
         <v>987</v>
-      </c>
-      <c r="D321" s="18" t="s">
-        <v>988</v>
       </c>
       <c r="E321" s="17">
         <v>1</v>
@@ -13394,7 +13377,7 @@
         <v>959</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D322" s="18" t="s">
         <v>960</v>
@@ -13409,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13420,7 +13403,7 @@
         <v>961</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E323" s="17">
         <v>1</v>
@@ -13440,19 +13423,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="50" t="s">
+        <v>991</v>
+      </c>
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="19" t="s">
         <v>992</v>
-      </c>
-      <c r="E324" s="17">
-        <v>1</v>
-      </c>
-      <c r="F324" s="17">
-        <v>1</v>
-      </c>
-      <c r="G324" s="17">
-        <v>1</v>
-      </c>
-      <c r="I324" s="19" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13478,10 +13461,10 @@
         <v>1</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13489,22 +13472,22 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C326" s="19" t="s">
         <v>995</v>
       </c>
-      <c r="C326" s="19" t="s">
+      <c r="E326" s="17">
+        <v>1</v>
+      </c>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
+      <c r="G326" s="17">
+        <v>1</v>
+      </c>
+      <c r="I326" s="15" t="s">
         <v>996</v>
-      </c>
-      <c r="E326" s="17">
-        <v>1</v>
-      </c>
-      <c r="F326" s="17">
-        <v>1</v>
-      </c>
-      <c r="G326" s="17">
-        <v>1</v>
-      </c>
-      <c r="I326" s="15" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13512,22 +13495,22 @@
         <v>326</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C327" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="E327" s="17">
+        <v>1</v>
+      </c>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
+      <c r="G327" s="17">
+        <v>1</v>
+      </c>
+      <c r="I327" s="15" t="s">
         <v>998</v>
-      </c>
-      <c r="E327" s="17">
-        <v>1</v>
-      </c>
-      <c r="F327" s="17">
-        <v>1</v>
-      </c>
-      <c r="G327" s="17">
-        <v>1</v>
-      </c>
-      <c r="I327" s="15" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13535,22 +13518,22 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="C328" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="C328" s="19" t="s">
+      <c r="E328" s="17">
+        <v>1</v>
+      </c>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
+      <c r="G328" s="17">
+        <v>1</v>
+      </c>
+      <c r="I328" s="15" t="s">
         <v>1001</v>
-      </c>
-      <c r="E328" s="17">
-        <v>1</v>
-      </c>
-      <c r="F328" s="17">
-        <v>1</v>
-      </c>
-      <c r="G328" s="17">
-        <v>1</v>
-      </c>
-      <c r="I328" s="15" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13558,14 +13541,14 @@
         <v>328</v>
       </c>
       <c r="B329" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C329" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="D329" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="D329" s="18" t="s">
-        <v>1005</v>
-      </c>
       <c r="E329" s="17">
         <v>1</v>
       </c>
@@ -13576,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13584,25 +13567,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D330" s="18" t="s">
         <v>983</v>
       </c>
-      <c r="C330" s="19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D330" s="18" t="s">
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
         <v>984</v>
-      </c>
-      <c r="E330" s="17">
-        <v>1</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13610,22 +13593,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C331" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1012</v>
-      </c>
-      <c r="E331" s="17">
-        <v>1</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13633,10 +13616,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E332" s="17">
         <v>1</v>
@@ -13648,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13656,10 +13639,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E333" s="17">
         <v>1</v>
@@ -13671,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13679,11 +13662,11 @@
         <v>333</v>
       </c>
       <c r="B334" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C334" s="15" t="s">
         <v>1010</v>
       </c>
-      <c r="C334" s="15" t="s">
-        <v>1011</v>
-      </c>
       <c r="E334" s="17">
         <v>1</v>
       </c>
@@ -13694,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -13702,11 +13685,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="51" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C335" s="52" t="s">
         <v>1016</v>
       </c>
-      <c r="C335" s="52" t="s">
-        <v>1017</v>
-      </c>
       <c r="E335" s="53">
         <v>1</v>
       </c>
@@ -13717,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="52" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -13725,11 +13708,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C336" s="52" t="s">
         <v>1020</v>
       </c>
-      <c r="C336" s="52" t="s">
-        <v>1021</v>
-      </c>
       <c r="E336" s="53">
         <v>1</v>
       </c>
@@ -13740,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="52" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -13748,11 +13731,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C337" s="54" t="s">
         <v>1022</v>
       </c>
-      <c r="C337" s="54" t="s">
-        <v>1023</v>
-      </c>
       <c r="E337" s="53">
         <v>1</v>
       </c>
@@ -13763,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="52" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
